--- a/medicine/Psychotrope/Kingfisher_Airlines/Kingfisher_Airlines.xlsx
+++ b/medicine/Psychotrope/Kingfisher_Airlines/Kingfisher_Airlines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kingfisher Airlines (code AITA : IT ; code OACI : KFR) était une compagnie aérienne indienne dirigée par Vijay Mallya dont le nom dérive de la bière Kingfisher et dont le 1er vol eut lieu le 9 mai 2005. Elle a cessé ses opérations le 1er octobre 2012.
 </t>
@@ -513,17 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création et expansion
-Kingfisher Airlines est créée en 2003. Elle est détenue par United Breweries Group. La compagnie aérienne commence son exploitation commerciale le 9 mai 2005 avec une flotte de quatre Airbus A320-200 neufs opérant entre Mumbai et Delhi[1].
+          <t>Création et expansion</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kingfisher Airlines est créée en 2003. Elle est détenue par United Breweries Group. La compagnie aérienne commence son exploitation commerciale le 9 mai 2005 avec une flotte de quatre Airbus A320-200 neufs opérant entre Mumbai et Delhi.
 Kingfisher Airlines est surtout connue aujourd'hui pour sa commande effectuée au salon du Bourget 2005 à Airbus, en achetant 5 A380, 5 A350 mais aussi 5 A330-200, le tout pour une valeur de trois milliards de dollars. Le 24 avril 2006, elle a commandé 5 A340-500 HGW destinés à desservir les États-Unis. Kingfisher Airlines, dont la société-mère est le brasseur United Breweries Group, confirme ainsi qu’elle est l’un des clients majeurs d’Airbus. C'est aussi un des clients majeurs d'ATR depuis qu'elle a commandé ferme 20 ATR-72-500 (livrés entre mars 2006 et août 2008) lors du salon aéronautique de Dubaï (novembre 2005). Ces ATR sont équipés d'écrans vidéo individuels.
-En avril 2008, la compagnie a fusionné avec Air Deccan, une autre compagnie aérienne indienne, récupérant ainsi les avions exploités et commandés par celle-ci[2].
+En avril 2008, la compagnie a fusionné avec Air Deccan, une autre compagnie aérienne indienne, récupérant ainsi les avions exploités et commandés par celle-ci.
 La compagnie est alors la numéro deux indienne.
-Déclin et cessation d'activité
-Depuis début 2012, la compagnie est très lourdement touchée par la crise financière et est au bord de la faillite. Les vols internationaux sont suspendus en avril 2012. Une grande partie de la flotte est reprise par les bailleurs et le personnel se met en grève car il n'est plus payé depuis le début de l'année[3]. La compagnie est rétrogradée à la 6e place avec à peine 3 % des parts de marché à la suite de la réduction de ses vols et de sa flotte à seulement sept appareils contre 77 auparavant[4].
-Depuis le 1er octobre 2012, plus aucun vol n'a été effectué par la compagnie dont tous les appareils sont cloués au sol à la suite d'une grève totale du personnel[5]. Le gouvernement indien a refusé le 17 octobre le plan d'hiver (haute saison en Inde) de la compagnie demandant 550 créneaux (= vols) hebdomadaires (contre 2 930 réalisés chaque semaine l'année précédente) et envisage la suspension de la licence de Kingfisher Airlines[6].
-Le 12 octobre 2012, alors que la compagnie accuse une dette estimée à deux milliards d'euros, un mandat d'arrêt est émis contre le patron Vijay Mallya et quatre responsables de Kingfisher Airlines, en raison de chèques sans provision émis par la compagnie[7].
-Le 20 octobre 2012, la Direction générale de l’aviation civile indienne retire sa licence de vol à Kingfisher Airlines[8]. La compagnie ne retrouvera sa licence de vol que si elle présente un second plan de sauvetage viable (pour le 31 décembre, le premier ayant été refusé), prévient alors l’autorité de l’aviation civile indienne[9] et ce pas avant le 31 décembre 2012.
-Le 3 février 2012, sa participation à l'alliance Oneworld est suspendue[10],[11].
 </t>
         </is>
       </c>
@@ -549,14 +560,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Déclin et cessation d'activité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis début 2012, la compagnie est très lourdement touchée par la crise financière et est au bord de la faillite. Les vols internationaux sont suspendus en avril 2012. Une grande partie de la flotte est reprise par les bailleurs et le personnel se met en grève car il n'est plus payé depuis le début de l'année. La compagnie est rétrogradée à la 6e place avec à peine 3 % des parts de marché à la suite de la réduction de ses vols et de sa flotte à seulement sept appareils contre 77 auparavant.
+Depuis le 1er octobre 2012, plus aucun vol n'a été effectué par la compagnie dont tous les appareils sont cloués au sol à la suite d'une grève totale du personnel. Le gouvernement indien a refusé le 17 octobre le plan d'hiver (haute saison en Inde) de la compagnie demandant 550 créneaux (= vols) hebdomadaires (contre 2 930 réalisés chaque semaine l'année précédente) et envisage la suspension de la licence de Kingfisher Airlines.
+Le 12 octobre 2012, alors que la compagnie accuse une dette estimée à deux milliards d'euros, un mandat d'arrêt est émis contre le patron Vijay Mallya et quatre responsables de Kingfisher Airlines, en raison de chèques sans provision émis par la compagnie.
+Le 20 octobre 2012, la Direction générale de l’aviation civile indienne retire sa licence de vol à Kingfisher Airlines. La compagnie ne retrouvera sa licence de vol que si elle présente un second plan de sauvetage viable (pour le 31 décembre, le premier ayant été refusé), prévient alors l’autorité de l’aviation civile indienne et ce pas avant le 31 décembre 2012.
+Le 3 février 2012, sa participation à l'alliance Oneworld est suspendue,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kingfisher_Airlines</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kingfisher_Airlines</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liaisons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Avant la cessation de ses activités, Kingfisher Airlines n'effectuait que des liaisons entre ces villes :
-Asie
-Bangladesh
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la cessation de ses activités, Kingfisher Airlines n'effectuait que des liaisons entre ces villes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kingfisher_Airlines</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kingfisher_Airlines</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liaisons</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bangladesh
 Dhaka - Aéroport international Shah Jalal
 Inde
 Îles Andaman-et-Nicobar
@@ -656,9 +745,43 @@
 Sri Lanka
 Colombo - Aéroport international Bandaranaike
 Émirats arabes unis
-Dubaï - Aéroport international de Dubaï
-Europe
-Royaume-Uni
+Dubaï - Aéroport international de Dubaï</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kingfisher_Airlines</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kingfisher_Airlines</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liaisons</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Royaume-Uni
 Londres - Aéroport de Londres-Heathrow</t>
         </is>
       </c>
